--- a/biology/Botanique/Clavulinaceae/Clavulinaceae.xlsx
+++ b/biology/Botanique/Clavulinaceae/Clavulinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Clavulinaceae sont une famille de champignons de l’ordre des Cantharellales. Le type nomenclatural est le genre Clavaria. Leur aspect est donc proche des Clavaires avec des formes de massues et de coraux. Il présente quatre genres et une soixantaine d'espèces. Ces espèces ont des modes de nutrition divers, certaines étant ectomycorhizienes (symbiose avec une espèce végétale), d'autres saprotrophes (dégradation de la pourriture du bois), d'autres lichénisés, et d'autres encore lichénicoles (parasites des lichens).
 Il est proposé d'ajouter à cette famille le genre Burgella mais ce n'est pas définitivement fixé.[réf. nécessaire]
@@ -512,14 +524,16 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (29 octobre 2013) :
 genre Clavulicium
 genre Clavulina
 genre Membranomyces
 genre Multiclavula
-Selon NCBI  (29 octobre 2013)[2] :
+Selon NCBI  (29 octobre 2013) :
 genre Clavulicium
 Clavulicium delectabile
 Clavulicium globosum
